--- a/biology/Botanique/Aceraceae/Aceraceae.xlsx
+++ b/biology/Botanique/Aceraceae/Aceraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Aceraceae est une famille de plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend 200 espèces réparties en 2 genres :
 Acer - Érables (au moins 150 espèces)
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Acer, nom latin de l'érable[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Acer, nom latin de l'érable.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG (1998)[2] jusqu'en classification phylogénétique APG III (2009)[3] cette famille est invalide et ses genres sont incorporés dans la famille Sapindaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG (1998) jusqu'en classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Sapindaceae.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Acéracées sont des arbres ou arbustes à feuilles ordinairement caduques, opposées, simples ou composées (p.ex. Acer negundo), et palminerves, sans stipules. 
 Fleurs généralement hermaphrodites, quelquefois dioïques, 5-mères, à pistil dimère.
